--- a/medicine/Psychotrope/Sōhan_Tsuji/Sōhan_Tsuji.xlsx
+++ b/medicine/Psychotrope/Sōhan_Tsuji/Sōhan_Tsuji.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C5%8Dhan_Tsuji</t>
+          <t>Sōhan_Tsuji</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tsuji Sohan ( 1758-1840 ) était un maître de la cérémonie du thé au milieu de la période Edo. Né dans la province d'Omi.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C5%8Dhan_Tsuji</t>
+          <t>Sōhan_Tsuji</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1758 dans le village de Kunitomo, district de Sakata, Omi (aujourd'hui ville de Kunitomo, ville de Nagahama, préfecture de Shiga ). Sōhan est la dixième génération de la famille Tsuji qui est active à Nagahama, sur les rives du lac Biwa, depuis la période Muromachi au XVe siècle. Il étudia le Kangaku dès son plus jeune âge auprès de Yūki Tomioka, puis il a appris les secrets de la voie du thé d'école d'Enshu auprès de Yūki Tomioka le maître du thé du domaine de Komuro, du ville de Nagahama à l'âge adulte [1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1758 dans le village de Kunitomo, district de Sakata, Omi (aujourd'hui ville de Kunitomo, ville de Nagahama, préfecture de Shiga ). Sōhan est la dixième génération de la famille Tsuji qui est active à Nagahama, sur les rives du lac Biwa, depuis la période Muromachi au XVe siècle. Il étudia le Kangaku dès son plus jeune âge auprès de Yūki Tomioka, puis il a appris les secrets de la voie du thé d'école d'Enshu auprès de Yūki Tomioka le maître du thé du domaine de Komuro, du ville de Nagahama à l'âge adulte . 
 Le domaine de Komuro a été réorganisé en 1788, en raison de la purge de la faction Daimyo Tanuma, suite à la chute d'Okitsugu Tanuma. La cérémonie du thé de l'école Enshu a failli disparaître lorsque le clan Komuro a été aboli en 1788.
 Sôhan a transmis tous les aspects et connaissances de l'école Enshu, y compris les secrets intérieurs, à Kobori Sochu, la huitième génération de la famille Kobori. On dit que sans la transmission de Tsuji à cette époque, l'école de thé Enshu n'aurait pas été transmise jusqu'à aujourd'hui.
 Dans la cérémonie du thé l'école d'Enshu, cela est appelé « Kaeshi-denju : réinitiation » et il fait toujours l'éloge de Sōhan Tsuji en tant que figure clé de la renaissance de l'école d'Enshu. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C5%8Dhan_Tsuji</t>
+          <t>Sōhan_Tsuji</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Livres connexes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Tsuji Sōhan et ses environs » (Yoshihide Miyata 1989)
 ↑ 「近江毎夕新聞」「謎の文人 辻宗範の足跡」（2008年11月7日）
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C5%8Dhan_Tsuji</t>
+          <t>Sōhan_Tsuji</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">国友鉄砲の里資料館, « 展示紹介「国友が生んだ科学者・文化人」 » (consulté le 20 juin 2013)
 国友鉄砲の里資料館公認・鉄砲の里 廣部豪男, « 花開く国友の文化 - 花開いた様々な文化 - 能筆の茶人　辻宗範 » (consulté le 27 août 2013)
